--- a/uploads/testblk.xlsx
+++ b/uploads/testblk.xlsx
@@ -353,7 +353,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,24 +362,24 @@
       <c r="A1" s="1">
         <v>1626285</v>
       </c>
-      <c r="B1">
-        <v>1234</v>
+      <c r="B1" s="1">
+        <v>1626285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1626286</v>
       </c>
-      <c r="B2">
-        <v>1234</v>
+      <c r="B2" s="1">
+        <v>1626285</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1234567</v>
       </c>
-      <c r="B3">
-        <v>1234</v>
+      <c r="B3" s="1">
+        <v>1626285</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
